--- a/Скорая.xlsx
+++ b/Скорая.xlsx
@@ -1,73 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Сотрудники" sheetId="1" r:id="rId1"/>
-    <sheet name="Пароли" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Больницы" sheetId="1" r:id="rId1"/>
+    <sheet name="Сотрудники" sheetId="2" r:id="rId2"/>
+    <sheet name="Бригада" sheetId="3" r:id="rId3"/>
+    <sheet name="Приказы" sheetId="4" r:id="rId4"/>
+    <sheet name="Вызовы" sheetId="5" r:id="rId5"/>
+    <sheet name="Пациенты" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>ФИО</t>
   </si>
   <si>
-    <t>Дата рождения</t>
-  </si>
-  <si>
-    <t>Пол</t>
-  </si>
-  <si>
-    <t>Должность</t>
-  </si>
-  <si>
-    <t>Дата вступления в должность</t>
-  </si>
-  <si>
-    <t>Дата окончаия</t>
-  </si>
-  <si>
-    <t>Ставка</t>
-  </si>
-  <si>
-    <t>Логин</t>
-  </si>
-  <si>
-    <t>Пароль</t>
-  </si>
-  <si>
-    <t>Буряк Роман</t>
-  </si>
-  <si>
-    <t>Сахаров Алексей</t>
-  </si>
-  <si>
-    <t>Сыздыков Раимбек</t>
-  </si>
-  <si>
-    <t>Шамсутдинов Влад</t>
+    <t xml:space="preserve">Код </t>
+  </si>
+  <si>
+    <t>название</t>
+  </si>
+  <si>
+    <t>Краткое название</t>
+  </si>
+  <si>
+    <t>адрес</t>
+  </si>
+  <si>
+    <t>контакты</t>
+  </si>
+  <si>
+    <t>табельный номер</t>
+  </si>
+  <si>
+    <t>фио</t>
+  </si>
+  <si>
+    <t>дата рождения</t>
+  </si>
+  <si>
+    <t>пол</t>
+  </si>
+  <si>
+    <t>должность</t>
+  </si>
+  <si>
+    <t>начало работы в этой должности</t>
+  </si>
+  <si>
+    <t>ставка</t>
+  </si>
+  <si>
+    <t>Номер_бригады</t>
+  </si>
+  <si>
+    <t>Состав</t>
+  </si>
+  <si>
+    <t>Дата_начала_работы_бригады</t>
+  </si>
+  <si>
+    <t>Время_начала_работы_бригады</t>
+  </si>
+  <si>
+    <t>Дата_конца_работы_бригады</t>
+  </si>
+  <si>
+    <t>Время_конца_работы_бригады</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Номер_выезда</t>
+  </si>
+  <si>
+    <t>Время_вызова</t>
+  </si>
+  <si>
+    <t>Номер_выехавшей_бригады</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Принятые_меры</t>
+  </si>
+  <si>
+    <t>Время_возвращения_бригады</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>Первоначальный_диагноз</t>
+  </si>
+  <si>
+    <t>safas</t>
+  </si>
+  <si>
+    <t>asfasf</t>
+  </si>
+  <si>
+    <t>safasf</t>
+  </si>
+  <si>
+    <t>asfaf</t>
+  </si>
+  <si>
+    <t>wqdwq</t>
+  </si>
+  <si>
+    <t>asdas111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,15 +162,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -104,6 +203,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -152,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,7 +289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,25 +517,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -443,57 +558,227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>23456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
-        <v>34567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
-        <v>45678</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2112412</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2112412</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2112412</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2112412</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2112412</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>214124</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2112412</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2112412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>214124</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2112412</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2112</v>
+      </c>
+      <c r="B8" s="5">
+        <v>121212</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>2112412</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>121212</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2112412</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -502,12 +787,201 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>12312</v>
+      </c>
+      <c r="D2">
+        <v>123123</v>
+      </c>
+      <c r="E2">
+        <v>123123</v>
+      </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <v>12312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
+      <c r="G2">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>213</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>